--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>321.60628</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1613.3211</v>
-      </c>
-      <c r="D2" t="n">
-        <v>488.35286</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="F2" t="n">
-        <v>395.52023</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1143.62386</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423.38947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>365.8314</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191.21467</v>
-      </c>
-      <c r="K2" t="n">
-        <v>791.66018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22545.74</v>
-      </c>
-      <c r="M2" t="n">
-        <v>158.37539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>355.58247</v>
-      </c>
-      <c r="O2" t="n">
-        <v>621.846</v>
-      </c>
-      <c r="P2" t="n">
-        <v>282.30901</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.11918</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1046.2469</v>
-      </c>
-      <c r="S2" t="n">
-        <v>203.46965</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>261.76738</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.39707</v>
-      </c>
-      <c r="W2" t="n">
-        <v>49.60225</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.29194</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>676.78839</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>5317.05934</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1532.97346</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>708.97624</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>249.6958</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>68.48388</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1017.86221</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.11105</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>473.73772</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>930.71666</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>594.41926</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16.43243</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>552.17066</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>846.38359</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>489.87554</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>329.69757</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.10423</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>407.25137</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1961.61244</v>
-      </c>
-      <c r="D3" t="n">
-        <v>556.54038</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>433.24289</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1308.95292</v>
-      </c>
-      <c r="H3" t="n">
-        <v>201.19654</v>
-      </c>
-      <c r="I3" t="n">
-        <v>422.54648</v>
-      </c>
-      <c r="J3" t="n">
-        <v>234.76707</v>
-      </c>
-      <c r="K3" t="n">
-        <v>897.56525</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26022.08</v>
-      </c>
-      <c r="M3" t="n">
-        <v>190.82207</v>
-      </c>
-      <c r="N3" t="n">
-        <v>388.63084</v>
-      </c>
-      <c r="O3" t="n">
-        <v>727.56114</v>
-      </c>
-      <c r="P3" t="n">
-        <v>267.0514</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.76006</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1129.98437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>200.27569</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>291.82504</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12.18964</v>
-      </c>
-      <c r="W3" t="n">
-        <v>47.92613</v>
-      </c>
-      <c r="X3" t="n">
-        <v>16.70885</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>788.08957</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6565.1048</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1723.43773</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>777.07961</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>417.94701</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>104.51374</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1135.39501</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.63867</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>555.87085</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>971.16295</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>709.38897</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>14.97251</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>635.4798</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>940.49429</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>527.78518</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>444.66643</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.64025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>532.65097</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2615.72512</v>
-      </c>
-      <c r="D4" t="n">
-        <v>682.31095</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>495.59619</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1546.02439</v>
-      </c>
-      <c r="H4" t="n">
-        <v>275.72233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>495.08556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>260.48493</v>
-      </c>
-      <c r="K4" t="n">
-        <v>996.64121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31189.27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>232.66357</v>
-      </c>
-      <c r="N4" t="n">
-        <v>440.10393</v>
-      </c>
-      <c r="O4" t="n">
-        <v>959.08353</v>
-      </c>
-      <c r="P4" t="n">
-        <v>319.89372</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.81807</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1239.62021</v>
-      </c>
-      <c r="S4" t="n">
-        <v>199.21056</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>375.02454</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.34146</v>
-      </c>
-      <c r="W4" t="n">
-        <v>86.70242</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21.10595</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>955.99774</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8099.57652</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1929.71538</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>891.62895</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>483.21691</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>113.79958</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1307.66478</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15.22387</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>645.1489</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1145.75406</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>811.68769</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16.01214</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>744.31862</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1168.74984</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>578.29886</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>488.63681</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.16276</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
